--- a/terminal-api/testspec/codereview.xlsx
+++ b/terminal-api/testspec/codereview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083D37C7-988D-4B54-BE2F-983EBA0782AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D76425-7693-464B-9412-7679DCB1506E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>jp.mcapps.pay_terminal</t>
     <phoneticPr fontId="1"/>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>okhttp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>barcode</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -229,13 +233,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -524,7 +529,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -535,7 +540,7 @@
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.796875" style="1"/>
-    <col min="7" max="7" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
@@ -639,6 +644,15 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45954</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="3" t="s">
@@ -667,8 +681,16 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45953</v>
       </c>
     </row>
     <row r="13" spans="2:7">

--- a/terminal-api/testspec/codereview.xlsx
+++ b/terminal-api/testspec/codereview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D76425-7693-464B-9412-7679DCB1506E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BB54DB-9C42-4842-9D86-639FF648C985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
